--- a/meta/en/5-b-1.xlsx
+++ b/meta/en/5-b-1.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -104,21 +103,6 @@
     <t>5.b.1. Proportion of individuals who own a mobile telephone, by sex</t>
   </si>
   <si>
-    <t xml:space="preserve"> National Statistical Committee of the Kyrgyz Republic (Household Statistics Division)</t>
-  </si>
-  <si>
-    <t>Kerimalieva N.K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>The proportion of individuals who own a mobile telephone, by sex is defined as the ‘proportion of individuals who own a mobile telephone, by sex’.</t>
   </si>
   <si>
@@ -147,6 +131,21 @@
   </si>
   <si>
     <t>KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Household Statistics)</t>
+  </si>
+  <si>
+    <t>Kalymbetova Yryskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
   </si>
 </sst>
 </file>
@@ -567,7 +566,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -626,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -634,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -642,7 +641,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -650,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -664,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -672,7 +671,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -680,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -694,7 +693,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -702,7 +701,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -716,7 +715,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -748,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -756,7 +755,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -764,7 +763,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
